--- a/Win32/Binaries/Table/buff.xlsx
+++ b/Win32/Binaries/Table/buff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BOC_A_SVN\京剧猫ACT-design\Data\技能buff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\design\Data\技能buff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="buff覆盖关系说明" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="189">
   <si>
     <t>int</t>
   </si>
@@ -82,12 +84,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>2000,0.4</t>
   </si>
   <si>
     <t>怪物sk1</t>
@@ -142,12 +138,823 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>startEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4,77</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5,78</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79,82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1,84</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武松技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武松技能4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武松技能5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2，不同的类型对应不同的意义</t>
+  </si>
+  <si>
+    <t>参数3，不同的类型对应不同的意义</t>
+  </si>
+  <si>
+    <t>参数5，不同的类型对应不同的意义</t>
+  </si>
+  <si>
+    <t>参数6，不同的类型对应不同的意义</t>
+  </si>
+  <si>
+    <t>参数7，不同的类型对应不同的意义</t>
+  </si>
+  <si>
+    <t>参数8，不同的类型对应不同的意义</t>
+  </si>
+  <si>
+    <t>韵纹技无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾喵加防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾喵加霸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3,76</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p回复为负值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门狂暴buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起身无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oss起身霸体</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击数加攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>霸体2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss通用霸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体18秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录宗眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女宗主眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04,0.04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹号角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活增加攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活增加防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活增加暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升20%！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御提升20%！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击提升！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awaken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵登场无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73,76</t>
+  </si>
+  <si>
+    <t>74,77</t>
+  </si>
+  <si>
+    <t>75,78</t>
+  </si>
+  <si>
+    <t>哥布林逃跑无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手宗男p1霸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手宗男p1霸体消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手宗男不移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手宗男移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖技能6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改type18、buff的bug</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在gameconfig中，大括号内的subtype可以免疫前面的subtype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个覆盖的关系，当存在中括号内的subtype存在时，就把后面大括号内的subtype的buff去掉
+-1不是任何subtype，是指所有负面buff（减属性和异常状态）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当存在减属性的buff时，第四个参数，必须将负值填在前面，第一个数字为负数，就判断为减属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当2中填了任意一个subtype，则1中任何buff都不会生效（加不上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述
+在战斗中如玩家获取buff，则需要显示此条描述信息在战斗界面中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类型
+1=属性增益buff
+2=特殊（负面）buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类（大类为1时，小类填多少都行）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大重叠数（例如连击b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uff的5%攻击可以叠5层）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间（单位秒）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标资源（是个备用的字段，没有实际意义但代码还在调用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1，不同的类型对应不同的意义（对应行，比如眩晕对应触发几率，没填的代表不需要参数。如给玩家增加属性的buff，则这个参数代表加了几条属性）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数4，不同的类型对应不同的意义，此处填对应参数2的值，如参数2三条属性都为50%，则此参数应为0.5,0.5,0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awaken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1代表加固定值，2代表加百分比，后面加几条属性，这里就要填几个数
+例如加三条属性，都是百分比，则应该填成：2,2,2按顺序来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性编号，多条属性用逗号隔开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=不是佣兵觉醒用的buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发几率（0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=是佣兵觉醒用的buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率（0-1）不填默认为100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>几秒跳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1次伤害</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走普通攻击伤害的倍率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速模式加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于第1大类加属性（增加帧播放速率）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=特殊buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2中1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别是眩晕、减速、中毒、易伤、无敌、霸体</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当buff大类为1时，此参数代表此buff共加几条属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=固定值  2=百分比
+如此buff包含多条属性，次参数表示所有属性提供的是固定值还是百分比。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=加属性的buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类为1时，小类填多少都行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖技能6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占坑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶掉无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损木偶自爆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2不显示伤害，1显示伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老丑愤怒眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老丑mp回复为负值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾舞木偶减防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-0.3,-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖韵纹技3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女宗主落雷眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑中毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士猫束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士猫落雷眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨满猫敲锣眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦猫眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑梅花毒药罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>船锚猫眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟无艳减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟无艳冰冻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐明减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>督宗牢笼眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>督宗激光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>督宗大鼎砸人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱宗小太阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨兰水牢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步宗大钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾木偶眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳宗莲花落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猫陨石眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猫陨石缓速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮狂暴了！！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段转换，HP、MP恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮第二阶段，给玩家回蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮第二阶段，给玩家回血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大飞韵纹技2中毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -166,6 +973,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,9 +1012,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -208,6 +1050,206 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513990</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="3981450"/>
+          <a:ext cx="2876190" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1971675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2685731</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2857389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="1971675"/>
+          <a:ext cx="2552381" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2028825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2666699</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2581206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="2028825"/>
+          <a:ext cx="2409524" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2723836</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3142973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="923925"/>
+          <a:ext cx="2514286" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1352550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3047634</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2171598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11725275" y="1352550"/>
+          <a:ext cx="2923809" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,29 +1588,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -579,14 +1623,14 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
@@ -612,151 +1656,203 @@
       <c r="R1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="W2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>-1</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>72</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -765,170 +1861,3697 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>23</v>
       </c>
       <c r="L6">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>-0.5</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>71</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>72</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>71</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>-10</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>0.8</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>9999</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>-10</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>72</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>72</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>1.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>72</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24" s="1">
+        <v>150</v>
+      </c>
+      <c r="T24">
+        <v>34</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>99999</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>99999</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>99999</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
+        <v>23</v>
+      </c>
+      <c r="O27" s="5">
+        <v>5500</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" t="s">
+        <v>95</v>
+      </c>
+      <c r="U28" t="s">
+        <v>96</v>
+      </c>
+      <c r="V28" t="s">
+        <v>97</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <v>0.8</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>99999</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>999</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.01</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>999</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>60</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>9</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>100</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>11</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.01</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39">
+        <v>0.1</v>
+      </c>
+      <c r="M39">
+        <v>-10000</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>72</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9999</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>-5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>99999</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="T42" s="1">
+        <v>42</v>
+      </c>
+      <c r="U42" s="1">
+        <v>44</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>72</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>72</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
         <v>25</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>-0.3</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>71</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>53</v>
+      </c>
+      <c r="N47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="T47" s="1">
+        <v>42</v>
+      </c>
+      <c r="U47" s="1">
+        <v>44</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>72</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>72</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>72</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>72</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>-0.6</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>-1</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54">
+        <v>0.3</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>11</v>
       </c>
-      <c r="N9">
-        <v>10</v>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>11</v>
+      </c>
+      <c r="O55">
+        <v>-15</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56">
+        <v>0.5</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57">
+        <v>0.5</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>72</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>72</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>-1</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>72</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>72</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>72</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>72</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>72</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>72</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="J66">
+        <v>15</v>
+      </c>
+      <c r="K66" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66">
+        <v>0.5</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>-15</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>8</v>
+      </c>
+      <c r="O69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>16</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>9</v>
+      </c>
+      <c r="O70" s="1">
+        <v>20</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="9" max="9" width="33.75" customWidth="1"/>
+    <col min="10" max="10" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="318.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>